--- a/example/DemoApp1C.xlsx
+++ b/example/DemoApp1C.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H108"/>
+  <dimension ref="B2:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Коммиты с 2016-01-01 по 2024-03-01</t>
+          <t>Коммиты с 2016-01-01 по 2024-03-18</t>
         </is>
       </c>
     </row>
@@ -492,56 +492,64 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>AccumulationRegisters</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ПроведениеСервер</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Взаиморасчеты</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Финансы</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Арипов Никита</t>
+          <t>1C-Company</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>aripovn@gmail.com</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>AccumulationRegisters</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>РаботаСПоследовательностями</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Взаиморасчеты</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Финансы</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Арипов Никита</t>
+          <t>1C-Company</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>aripovn@gmail.com</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -550,15 +558,19 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ГеопозиционированиеКлиент</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Встречи</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>115</v>
+        <v>771</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -579,15 +591,19 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ГеопозиционированиеСервер</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>ВходящиеПисьма</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -595,11 +611,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -608,15 +624,19 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>РаботаСДоставляемымиУведомлениям</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>ИсходящиеПисьма</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -628,24 +648,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>РаботаСДоставляемымиУведомлениям</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>ИсходящиеПисьма</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -657,7 +681,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -666,15 +690,19 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>РаботаСПанельюЗадач</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Контрагенты</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Закупки, Продажи, Финансы</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -686,24 +714,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>УведомленияКлиент</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Контрагенты</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Закупки, Продажи, Финансы</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -711,11 +743,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -724,15 +756,19 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>УведомленияСервер</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>МобильныеУстройства</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -744,7 +780,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -753,15 +789,19 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ОбменМобильныеПереопределяемый</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>НастройкиТорговогоОборудования</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -773,24 +813,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ОбменМобильныеПереопределяемый</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>НастройкиТорговогоОборудования</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -802,7 +846,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -811,15 +855,19 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Пользователи</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Организации</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -827,20 +875,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -848,7 +896,11 @@
           <t>Пользователи</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -860,7 +912,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -869,15 +921,19 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Помощник</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>РасчетныеСчетаКонтрагентов</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Закупки, Продажи, Финансы</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -885,11 +941,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -898,15 +954,19 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ПомощникКлиент</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Склады</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ТоварныеЗапасы</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -914,11 +974,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -927,15 +987,19 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>РаботаСИсториейДанных</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Товары</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Закупки, Продажи, ТоварныеЗапасы</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -947,24 +1011,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>РаботаСХранилищемОбщихНастроек</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Товары</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Закупки, Продажи, ТоварныеЗапасы</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -972,11 +1040,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>784</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -985,15 +1053,19 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>РаботаСХранилищемОбщихНастроек</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>ХранилищеВариантовОтчетов</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1005,7 +1077,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1014,15 +1086,19 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>РаботаСПочтой</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>ХранимыеФайлы</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1034,24 +1110,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>РаботаСПочтой</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>ХранимыеФайлы</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1063,7 +1143,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>346</v>
+        <v>1244</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1072,15 +1152,19 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>РаботаСПочтойВызовСервера</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>НастроитьСканерШтрихКодов</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Закупки</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1088,11 +1172,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1101,15 +1185,19 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>РаботаСТорговымОборудованием</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>ОбщиеНастройки</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1117,11 +1205,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1130,15 +1218,19 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>РаботаСТорговымОборудованием</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>УстановитьВидимостьОбъектовЧерезODataAPI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1150,7 +1242,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1159,15 +1251,19 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияАгрегатов</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>УстановитьРасширениеРаботыСКриптографией</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1175,28 +1271,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияАгрегатов</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>УстановитьРасширениеРаботыСФайлами</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1208,7 +1308,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1217,15 +1317,19 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>СервисныеМеханизмы</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>УстановитьСканерШтрихкодов</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Закупки</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1237,7 +1341,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1246,15 +1350,19 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonCommands</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>СервисныеМеханизмы</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>УстановитьСканерШтрихкодов</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Закупки</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1266,7 +1374,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1275,12 +1383,12 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ОбменМобильныеОбщее</t>
+          <t>Звонок</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1291,11 +1399,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1304,15 +1412,19 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>РаботаСПолнотекстовымПоиском</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>НастройкаPushУведомлений</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1320,40 +1432,44 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>НовыйДокумент</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>НастройкаPushУведомлений</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Арипов Никита</t>
+          <t>1C-Company</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>aripovn@gmail.com</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1362,19 +1478,15 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Заказ</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Продажи</t>
-        </is>
-      </c>
+          <t>НастройкаПомощникаНеотработанныхЗаказов</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1386,26 +1498,26 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="H37" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Заказ</t>
+          <t>НастройкиМобильногоУстройства</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Продажи</t>
+          <t>Предприятие</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1415,11 +1527,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1428,19 +1540,15 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ОперацияПоУчетуТоваров</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ТоварныеЗапасы</t>
-        </is>
-      </c>
+          <t>ОбщиеНастройки</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1448,32 +1556,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ОперацияПоУчетуТоваров</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ТоварныеЗапасы</t>
-        </is>
-      </c>
+          <t>ФормаПодбора</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1485,7 +1589,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1494,19 +1598,15 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonForms</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Оплата</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>ФормаПодбораМобильная</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1518,28 +1618,24 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Оплата</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>ГеопозиционированиеКлиент</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1547,11 +1643,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1560,19 +1656,15 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ПоступлениеДенег</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>ГеопозиционированиеСервер</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1584,28 +1676,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ПоступлениеДенег</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>ОбменМобильныеОбщее</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1617,7 +1705,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1626,19 +1714,15 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ПриходТовара</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Закупки</t>
-        </is>
-      </c>
+          <t>ОбменМобильныеПереопределяемый</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1650,28 +1734,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ПриходТовара</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Закупки</t>
-        </is>
-      </c>
+          <t>ОбменМобильныеПереопределяемый</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1683,7 +1763,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1692,19 +1772,15 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>РасходТовара</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Продажи</t>
-        </is>
-      </c>
+          <t>Пользователи</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1716,28 +1792,24 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="H47" t="n">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>РасходТовара</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Продажи</t>
-        </is>
-      </c>
+          <t>Пользователи</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1749,7 +1821,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>688</v>
+        <v>64</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1758,19 +1830,15 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>AccumulationRegisters</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Взаиморасчеты</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>Помощник</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1782,28 +1850,24 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="H49" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>AccumulationRegisters</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Взаиморасчеты</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Финансы</t>
-        </is>
-      </c>
+          <t>ПомощникКлиент</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1811,11 +1875,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1824,52 +1888,44 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Контрагенты</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Закупки, Продажи, Финансы</t>
-        </is>
-      </c>
+          <t>ПроведениеСервер</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1C-Company</t>
+          <t>Арипов Никита</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>aripovn@gmail.com</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>391</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Контрагенты</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Закупки, Продажи, Финансы</t>
-        </is>
-      </c>
+          <t>РаботаСДоставляемымиУведомлениям</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1877,32 +1933,28 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>МобильныеУстройства</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСДоставляемымиУведомлениям</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1910,11 +1962,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1923,19 +1975,15 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>НастройкиТорговогоОборудования</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСИсториейДанных</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1950,25 +1998,21 @@
         <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>НастройкиТорговогоОборудования</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСПанельюЗадач</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -1976,32 +2020,28 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Товары</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Закупки, Продажи, ТоварныеЗапасы</t>
-        </is>
-      </c>
+          <t>РаботаСПолнотекстовымПоиском</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2009,44 +2049,40 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Товары</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Закупки, Продажи, ТоварныеЗапасы</t>
-        </is>
-      </c>
+          <t>РаботаСПоследовательностями</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1C-Company</t>
+          <t>Арипов Никита</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>aripovn@gmail.com</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>784</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2055,19 +2091,15 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ХранимыеФайлы</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСПочтой</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2079,28 +2111,24 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="H58" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ХранимыеФайлы</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСПочтой</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2112,7 +2140,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1244</v>
+        <v>346</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2121,19 +2149,15 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Встречи</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСПочтойВызовСервера</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2145,7 +2169,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>771</v>
+        <v>12</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2154,19 +2178,15 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ИсходящиеПисьма</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСТорговымОборудованием</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2178,28 +2198,24 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ИсходящиеПисьма</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСТорговымОборудованием</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2211,7 +2227,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2220,19 +2236,15 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ВходящиеПисьма</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСХранилищемОбщихНастроек</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2240,11 +2252,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2253,19 +2265,15 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Организации</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РаботаСХранилищемОбщихНастроек</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2277,7 +2285,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2286,19 +2294,15 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Пользователи</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>РегламентныеЗаданияАгрегатов</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2306,32 +2310,28 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>РасчетныеСчетаКонтрагентов</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Закупки, Продажи, Финансы</t>
-        </is>
-      </c>
+          <t>РегламентныеЗаданияАгрегатов</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2352,19 +2352,15 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Склады</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ТоварныеЗапасы</t>
-        </is>
-      </c>
+          <t>СервисныеМеханизмы</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2372,32 +2368,28 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ХранилищеВариантовОтчетов</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>СервисныеМеханизмы</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2409,7 +2401,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2418,19 +2410,15 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>УстановитьСканерШтрихкодов</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Закупки</t>
-        </is>
-      </c>
+          <t>УведомленияКлиент</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2442,28 +2430,24 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>УстановитьСканерШтрихкодов</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Закупки</t>
-        </is>
-      </c>
+          <t>УведомленияСервер</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2471,11 +2455,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2484,17 +2468,17 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>НастроитьСканерШтрихКодов</t>
+          <t>АдминистративныйСервис</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Закупки</t>
+          <t>Предприятие</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2508,7 +2492,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2517,12 +2501,12 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ОбщиеНастройки</t>
+          <t>ЖурналРегистрации</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2537,25 +2521,25 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>УстановитьВидимостьОбъектовЧерезODataAPI</t>
+          <t>ЖурналРегистрации</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2574,7 +2558,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>45</v>
+        <v>917</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2583,12 +2567,12 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>УстановитьРасширениеРаботыСКриптографией</t>
+          <t>НастройкиПользователя</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2603,25 +2587,25 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>CommonCommands</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>УстановитьРасширениеРаботыСФайлами</t>
+          <t>НастройкиПользователя</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2640,7 +2624,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2649,15 +2633,19 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Звонок</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>ПроведениеДокументов</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2665,11 +2653,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -2678,19 +2666,15 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>НастройкиМобильногоУстройства</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>Путеводитель</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2702,21 +2686,21 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ФормаПодбораМобильная</t>
+          <t>Путеводитель</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2727,11 +2711,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -2740,15 +2724,19 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>НастройкаПомощникаНеотработанныхЗаказов</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>СписокАктивныхПользователей</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2756,11 +2744,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -2769,12 +2757,12 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>НастройкаPushУведомлений</t>
+          <t>УдалениеПомеченныхОбъектов</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2789,25 +2777,25 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H80" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>НастройкаPushУведомлений</t>
+          <t>УправлениеАгрегатамиПродаж</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2826,7 +2814,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -2835,15 +2823,19 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ОбщиеНастройки</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>УправлениеНастройкамиФорм</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2855,7 +2847,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -2864,15 +2856,19 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>CommonForms</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ФормаПодбора</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>УправлениеПолнотекстовымПоиском</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2884,7 +2880,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -2898,7 +2894,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>НастройкиПользователя</t>
+          <t>УправлениеСистемойВзаимодействия</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2917,10 +2913,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2931,7 +2927,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>НастройкиПользователя</t>
+          <t>ЭлектроннаяПочта</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2946,14 +2942,14 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -2964,10 +2960,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Путеводитель</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>ЭлектроннаяПочта</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Предприятие</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -2975,28 +2975,32 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Путеводитель</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Заказ</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Продажи</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>1C-Company</t>
@@ -3004,30 +3008,30 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ЭлектроннаяПочта</t>
+          <t>Заказ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Продажи</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3037,44 +3041,40 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="H88" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ЭлектроннаяПочта</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Предприятие</t>
-        </is>
-      </c>
+          <t>НовыйДокумент</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1C-Company</t>
+          <t>Арипов Никита</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>aripovn@gmail.com</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3083,17 +3083,17 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>УправлениеСистемойВзаимодействия</t>
+          <t>ОперацияПоУчетуТоваров</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>ТоварныеЗапасы</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3107,26 +3107,26 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ЖурналРегистрации</t>
+          <t>ОперацияПоУчетуТоваров</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>ТоварныеЗапасы</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3136,30 +3136,30 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ЖурналРегистрации</t>
+          <t>Оплата</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Финансы</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3169,30 +3169,30 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>917</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>АдминистративныйСервис</t>
+          <t>Оплата</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Финансы</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3215,17 +3215,17 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ПроведениеДокументов</t>
+          <t>ПоступлениеДенег</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Финансы</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3235,30 +3235,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>СписокАктивныхПользователей</t>
+          <t>ПоступлениеДенег</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Финансы</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3281,17 +3281,17 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>УдалениеПомеченныхОбъектов</t>
+          <t>ПриходТовара</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Закупки</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3301,30 +3301,30 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>284</v>
+        <v>58</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>УправлениеАгрегатамиПродаж</t>
+          <t>ПриходТовара</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Закупки</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3347,17 +3347,17 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>УправлениеНастройкамиФорм</t>
+          <t>РасходТовара</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Продажи</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3367,30 +3367,30 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>УправлениеПолнотекстовымПоиском</t>
+          <t>РасходТовара</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Предприятие</t>
+          <t>Продажи</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>88</v>
+        <v>688</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="G102" t="n">
+        <v>134</v>
+      </c>
+      <c r="H102" t="n">
         <v>67</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="G104" t="n">
+        <v>432</v>
+      </c>
+      <c r="H104" t="n">
         <v>216</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3628,12 +3628,12 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>WebServices</t>
+          <t>SettingsStorages</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MAExchange</t>
+          <t>ХранилищеВариантовОтчетов</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -3644,25 +3644,25 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>register.github@1c.ru</t>
+          <t>shan@1c.ru</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>179</v>
+        <v>1024</v>
       </c>
       <c r="H107" t="n">
-        <v>12</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>SettingsStorages</t>
+          <t>WebServices</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ХранилищеВариантовОтчетов</t>
+          <t>MAExchange</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -3673,13 +3673,42 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>shan@1c.ru</t>
+          <t>register.github@1c.ru</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>512</v>
+        <v>179</v>
       </c>
       <c r="H108" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>WebServices</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MAExchange</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1C-Company</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>shan@1c.ru</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>177</v>
+      </c>
+      <c r="H109" t="n">
         <v>0</v>
       </c>
     </row>
